--- a/site0625/res/storyboard.xlsx
+++ b/site0625/res/storyboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\korea202102_jspworkspace\site0625\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A60AF4EC-D090-437A-954F-56BAFC7507D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B56C756C-EF0E-4F55-A056-0580988042C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25320" yWindow="405" windowWidth="25440" windowHeight="15390" xr2:uid="{00670975-EF59-4426-B997-835F03FEB5AF}"/>
   </bookViews>
@@ -136,7 +136,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -158,6 +158,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -191,7 +203,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -221,6 +233,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -536,10 +557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFA732D0-DC4A-42DD-BBDF-C9B73321262A}">
-  <dimension ref="B1:H14"/>
+  <dimension ref="B1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:H13"/>
+      <selection activeCell="B12" sqref="B12:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -582,7 +603,7 @@
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B3" s="4">
+      <c r="B3" s="10">
         <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -602,49 +623,45 @@
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B4" s="4">
+      <c r="B4" s="7">
         <v>2</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="5">
-        <v>1</v>
-      </c>
-      <c r="F4" s="5">
-        <v>1</v>
-      </c>
-      <c r="G4" s="4">
+      <c r="E4" s="8">
+        <v>1</v>
+      </c>
+      <c r="F4" s="8">
+        <v>1</v>
+      </c>
+      <c r="G4" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B5" s="4">
-        <v>6</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="5">
-        <v>1</v>
-      </c>
-      <c r="F5" s="5">
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="12">
+        <v>1</v>
+      </c>
+      <c r="F5" s="12">
         <v>2</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="11">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B6" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="5">
@@ -654,83 +671,95 @@
         <v>3</v>
       </c>
       <c r="G6" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B7" s="4">
+        <v>7</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="5">
+        <v>1</v>
+      </c>
+      <c r="F7" s="5">
+        <v>4</v>
+      </c>
+      <c r="G7" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B8" s="4">
         <v>8</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B8" s="7">
-        <v>3</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="8">
-        <v>3</v>
-      </c>
-      <c r="F8" s="8">
-        <v>0</v>
-      </c>
-      <c r="G8" s="7">
-        <v>0</v>
-      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="4"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B9" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E9" s="8">
         <v>3</v>
       </c>
-      <c r="F9" s="8"/>
+      <c r="F9" s="8">
+        <v>0</v>
+      </c>
       <c r="G9" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B10" s="7">
+        <v>4</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="8">
+        <v>3</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B12" s="9" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B12" t="s">
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B13" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B13" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B14" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -739,11 +768,23 @@
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
     </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B15" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B13:H13"/>
     <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B12:G12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
